--- a/Datatables/Scenario1.xlsx
+++ b/Datatables/Scenario1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KRISHRO\Workspace\Personal\LT\Datatables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KRISHRO\Workspace\Personal\Final\LT-TCS\Datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9826145B-63B8-42CE-B9CE-F065750E5260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F054B363-1377-43F9-9943-9986AE16F746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="766" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="280">
   <si>
     <t>Keyword_88</t>
   </si>
@@ -868,6 +868,15 @@
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>Upload Image,40</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Logout</t>
   </si>
 </sst>
 </file>
@@ -954,7 +963,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -990,6 +999,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -999,7 +1019,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1016,6 +1036,7 @@
     <xf numFmtId="22" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1360,10 +1381,10 @@
   <dimension ref="A1:IV5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15"/>
@@ -2168,6 +2189,12 @@
       <c r="E2" s="3" t="s">
         <v>275</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="3" spans="1:256">
       <c r="A3" s="6" t="s">
@@ -2233,10 +2260,10 @@
   <dimension ref="A1:BQ1593"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2319,7 +2346,9 @@
       <c r="J1" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="K1"/>
+      <c r="K1" s="12" t="s">
+        <v>278</v>
+      </c>
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
